--- a/Design/Level Design/LevelDesign.xlsx
+++ b/Design/Level Design/LevelDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ship_example" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="room_rnd5x4_1" sheetId="13" r:id="rId10"/>
     <sheet name="empty" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -12738,7 +12738,7 @@
   <dimension ref="B2:BZ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/Level Design/LevelDesign.xlsx
+++ b/Design/Level Design/LevelDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" tabRatio="957"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" tabRatio="957" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="small level blocks (proto)" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="27">
   <si>
     <t>c</t>
   </si>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BX254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DG45" sqref="DG45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BU38" sqref="BU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6765,8 +6765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:AX30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18993,7 +18993,7 @@
   <dimension ref="A1:BH40"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM68" sqref="AM68"/>
+      <selection sqref="A1:BH40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24407,7 +24407,7 @@
   <dimension ref="A1:AN60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ25" sqref="AZ25"/>
+      <selection activeCell="AZ22" sqref="AZ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27134,7 +27134,7 @@
   <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BB50" sqref="BB50"/>
+      <selection sqref="A1:AN50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54011,8 +54011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BZ101"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54070,15 +54070,15 @@
       <c r="K3" s="60"/>
       <c r="L3" s="61"/>
       <c r="N3" s="65"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="6"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
       <c r="T3" s="65"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="22"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
       <c r="Z3" s="65"/>
       <c r="AA3" s="68"/>
       <c r="AB3" s="68"/>
@@ -54136,16 +54136,16 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="9"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="70"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="70"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="5"/>
@@ -54207,20 +54207,20 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="9"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="70"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="70"/>
       <c r="Z5" s="63"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="8" t="s">
@@ -54296,16 +54296,16 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="13"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="70"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="70"/>
       <c r="Z6" s="63"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8"/>
@@ -54363,16 +54363,16 @@
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="61"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="61"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="71"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="71"/>
       <c r="Z7" s="64"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="12"/>
@@ -54502,11 +54502,11 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="4"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="70"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="6"/>
       <c r="AF10" s="63"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
@@ -54572,13 +54572,13 @@
       </c>
       <c r="W11" s="8"/>
       <c r="X11" s="9"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="8"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="7"/>
       <c r="AB11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="70"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="9"/>
       <c r="AF11" s="63"/>
       <c r="AG11" s="8"/>
       <c r="AH11" s="8" t="s">
@@ -54650,11 +54650,11 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="9"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="12"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="11"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="70"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="13"/>
       <c r="AF12" s="63"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
@@ -54760,15 +54760,15 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="N15" s="65"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="69"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
       <c r="T15" s="65"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="69"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="22"/>
       <c r="Z15" s="65"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="5"/>
@@ -54811,16 +54811,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="70"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="70"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="9"/>
       <c r="Z16" s="66"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="8"/>
@@ -54865,20 +54865,20 @@
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="70"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="7"/>
       <c r="V17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="70"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="9"/>
       <c r="Z17" s="66"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="8" t="s">
@@ -54935,16 +54935,16 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="70"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="70"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="13"/>
       <c r="Z18" s="66"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="12"/>
@@ -54987,16 +54987,16 @@
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="61"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="71"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="71"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="61"/>
       <c r="Z19" s="67"/>
       <c r="AA19" s="72"/>
       <c r="AB19" s="72"/>
@@ -55101,11 +55101,11 @@
       <c r="V22" s="8"/>
       <c r="W22" s="9"/>
       <c r="X22" s="70"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="70"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
@@ -55157,13 +55157,13 @@
       <c r="V23" s="8"/>
       <c r="W23" s="9"/>
       <c r="X23" s="70"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="8"/>
       <c r="AB23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="70"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8" t="s">
@@ -55223,11 +55223,11 @@
       <c r="V24" s="12"/>
       <c r="W24" s="13"/>
       <c r="X24" s="70"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="70"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
@@ -55890,9 +55890,9 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="7"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="8"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="4"/>
@@ -55963,8 +55963,8 @@
       <c r="K44" s="9"/>
       <c r="L44" s="7"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="8" t="s">
-        <v>1</v>
+      <c r="N44" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="9"/>
@@ -56034,15 +56034,15 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="7"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="8"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="9"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="13"/>
       <c r="U45" s="70"/>
       <c r="V45" s="26"/>
       <c r="W45" s="27"/>
@@ -56100,16 +56100,16 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="13"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
       <c r="U46" s="71"/>
       <c r="V46" s="29"/>
       <c r="W46" s="30"/>
@@ -56163,21 +56163,21 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="4"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="69"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="25"/>
       <c r="V47" s="23"/>
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
@@ -56230,21 +56230,21 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="28"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="7"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="70"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="28"/>
       <c r="V48" s="26"/>
       <c r="W48" s="27"/>
       <c r="X48" s="27"/>
@@ -56299,27 +56299,27 @@
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O49" s="8"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T49" s="9"/>
-      <c r="U49" s="70"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="27"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="27"/>
+      <c r="U49" s="28"/>
       <c r="V49" s="26"/>
       <c r="W49" s="27"/>
       <c r="X49" s="27" t="s">
@@ -56374,21 +56374,21 @@
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="28"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="70"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="28"/>
       <c r="V50" s="26"/>
       <c r="W50" s="27"/>
       <c r="X50" s="27"/>
@@ -56441,21 +56441,21 @@
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="31"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="72"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="71"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="31"/>
       <c r="V51" s="29"/>
       <c r="W51" s="30"/>
       <c r="X51" s="30"/>
@@ -56508,21 +56508,21 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="25"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="69"/>
       <c r="V52" s="23"/>
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
@@ -56575,21 +56575,21 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="28"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
+      <c r="N53" s="19"/>
       <c r="O53" s="8"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="28"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="70"/>
       <c r="V53" s="26"/>
       <c r="W53" s="27"/>
       <c r="X53" s="27"/>
@@ -56644,27 +56644,27 @@
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="28"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="63"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="17" t="s">
+      <c r="G54" s="63"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="18"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="27"/>
-      <c r="U54" s="28"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="9"/>
+      <c r="U54" s="70"/>
       <c r="V54" s="26"/>
       <c r="W54" s="27"/>
       <c r="X54" s="27" t="s">
@@ -56719,21 +56719,21 @@
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="28"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="70"/>
       <c r="V55" s="26"/>
       <c r="W55" s="27"/>
       <c r="X55" s="27"/>
@@ -56786,21 +56786,21 @@
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="31"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="31"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="67"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="71"/>
       <c r="V56" s="29"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -56853,21 +56853,21 @@
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="69"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="25"/>
       <c r="V57" s="23"/>
       <c r="W57" s="24"/>
       <c r="X57" s="24"/>
@@ -56920,21 +56920,21 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="28"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="70"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="28"/>
       <c r="V58" s="26"/>
       <c r="W58" s="27"/>
       <c r="X58" s="27"/>
@@ -56989,27 +56989,27 @@
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="7"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="T59" s="9"/>
-      <c r="U59" s="70"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="27"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="27"/>
+      <c r="U59" s="28"/>
       <c r="V59" s="26"/>
       <c r="W59" s="27"/>
       <c r="X59" s="27" t="s">
@@ -57064,21 +57064,21 @@
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="7"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="70"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="28"/>
       <c r="V60" s="26"/>
       <c r="W60" s="27"/>
       <c r="X60" s="27"/>
@@ -57131,21 +57131,21 @@
       <c r="D61" s="30"/>
       <c r="E61" s="30"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="71"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="31"/>
       <c r="V61" s="29"/>
       <c r="W61" s="30"/>
       <c r="X61" s="30"/>
@@ -57198,20 +57198,20 @@
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="65"/>
-      <c r="H62" s="4"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="6"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="60"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="65"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
       <c r="U62" s="69"/>
       <c r="V62" s="23"/>
       <c r="W62" s="24"/>
@@ -57265,20 +57265,20 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="7"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
-      <c r="L63" s="7"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
+      <c r="N63" s="19"/>
       <c r="O63" s="8"/>
       <c r="P63" s="9"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="9"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="6"/>
       <c r="U63" s="70"/>
       <c r="V63" s="26"/>
       <c r="W63" s="27"/>
@@ -57334,8 +57334,8 @@
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="28"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="8" t="s">
         <v>1</v>
       </c>
@@ -57343,8 +57343,8 @@
       <c r="K64" s="9"/>
       <c r="L64" s="7"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="8" t="s">
-        <v>1</v>
+      <c r="N64" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="9"/>
@@ -57409,14 +57409,14 @@
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="28"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="7"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="8"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="11"/>
@@ -57476,11 +57476,11 @@
       <c r="D66" s="30"/>
       <c r="E66" s="30"/>
       <c r="F66" s="31"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="61"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="22"/>
       <c r="L66" s="59"/>
       <c r="M66" s="60"/>
       <c r="N66" s="60"/>
@@ -57543,11 +57543,11 @@
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="25"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="62"/>
       <c r="L67" s="23"/>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
@@ -57610,11 +57610,11 @@
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="28"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="28"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="63"/>
       <c r="L68" s="26"/>
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
@@ -57679,13 +57679,13 @@
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="28"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" s="27"/>
-      <c r="K69" s="28"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="63"/>
       <c r="L69" s="26"/>
       <c r="M69" s="27"/>
       <c r="N69" s="27" t="s">
@@ -57754,11 +57754,11 @@
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="28"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="28"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="63"/>
       <c r="L70" s="26"/>
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
@@ -57821,11 +57821,11 @@
       <c r="D71" s="30"/>
       <c r="E71" s="30"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="31"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="64"/>
       <c r="L71" s="29"/>
       <c r="M71" s="30"/>
       <c r="N71" s="30"/>
@@ -57883,31 +57883,31 @@
       <c r="BN71" s="13"/>
     </row>
     <row r="72" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="6"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="65"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="69"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="25"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -57950,31 +57950,31 @@
       <c r="BN72" s="6"/>
     </row>
     <row r="73" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="7"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
+      <c r="N73" s="19"/>
       <c r="O73" s="8"/>
       <c r="P73" s="9"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="8"/>
-      <c r="Y73" s="8"/>
-      <c r="Z73" s="9"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="70"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="28"/>
       <c r="AA73" s="7"/>
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
@@ -58017,31 +58017,41 @@
       <c r="BN73" s="9"/>
     </row>
     <row r="74" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
       <c r="L74" s="7"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
+      <c r="N74" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="O74" s="8"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="8"/>
-      <c r="Y74" s="8"/>
-      <c r="Z74" s="9"/>
+      <c r="S74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T74" s="9"/>
+      <c r="U74" s="70"/>
+      <c r="V74" s="26"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="28"/>
       <c r="AA74" s="7"/>
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
@@ -58084,31 +58094,31 @@
       <c r="BN74" s="9"/>
     </row>
     <row r="75" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="7"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="8"/>
       <c r="P75" s="9"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="9"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="70"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="28"/>
       <c r="AA75" s="7"/>
       <c r="AB75" s="8"/>
       <c r="AC75" s="8"/>
@@ -58151,31 +58161,31 @@
       <c r="BN75" s="9"/>
     </row>
     <row r="76" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="13"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="71"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="31"/>
       <c r="AA76" s="11"/>
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
@@ -58218,31 +58228,31 @@
       <c r="BN76" s="13"/>
     </row>
     <row r="77" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="6"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="24"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="25"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -58285,31 +58295,31 @@
       <c r="BN77" s="6"/>
     </row>
     <row r="78" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="9"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="28"/>
       <c r="AA78" s="7"/>
       <c r="AB78" s="8"/>
       <c r="AC78" s="8"/>
@@ -58352,31 +58362,41 @@
       <c r="BN78" s="9"/>
     </row>
     <row r="79" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="9"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="27"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O79" s="27"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T79" s="27"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="28"/>
       <c r="AA79" s="7"/>
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
@@ -58419,31 +58439,31 @@
       <c r="BN79" s="9"/>
     </row>
     <row r="80" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="9"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="28"/>
       <c r="AA80" s="7"/>
       <c r="AB80" s="8"/>
       <c r="AC80" s="8"/>
@@ -58486,31 +58506,31 @@
       <c r="BN80" s="9"/>
     </row>
     <row r="81" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="12"/>
-      <c r="Z81" s="13"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="31"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="31"/>
       <c r="AA81" s="11"/>
       <c r="AB81" s="12"/>
       <c r="AC81" s="12"/>
@@ -59901,8 +59921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AY56"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AT6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BQ58" sqref="BQ58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
